--- a/data/case1/5/P2_6.xlsx
+++ b/data/case1/5/P2_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.27621652197818491</v>
+        <v>0.27610753363967433</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999992817529915</v>
+        <v>-0.0099999992792305648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999992790179562</v>
+        <v>-0.0089999992768508008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.061999999511971993</v>
+        <v>0.061999999502965863</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999992960904081</v>
+        <v>-0.0059999992942643132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999992813111191</v>
+        <v>-0.0059999992792256762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999160660309</v>
+        <v>-0.019999999156192771</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.01999999915345807</v>
+        <v>-0.019999999148916814</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.030842506637058342</v>
+        <v>-0.030400446508166645</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999992601760255</v>
+        <v>-0.0059999992577388639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999992727419169</v>
+        <v>-0.0044999992705747616</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999992598664953</v>
+        <v>-0.0059999992574142347</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999992591119877</v>
+        <v>-0.0059999992565886728</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.01199999920869832</v>
+        <v>-0.011999999205175804</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.035019204125301684</v>
+        <v>0.034752199761305391</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999992583752437</v>
+        <v>-0.0059999992557968618</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999992557271398</v>
+        <v>-0.0059999992530990198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999992299327758</v>
+        <v>-0.0089999992267761897</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.083864867436784785</v>
+        <v>-0.083788868690112928</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999992818352581</v>
+        <v>-0.008999999279485138</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999992810367857</v>
+        <v>-0.0089999992786813365</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999992805251949</v>
+        <v>-0.0089999992781306659</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999992729268286</v>
+        <v>-0.0089999992706575327</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998983060394</v>
+        <v>-0.041999998975218666</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998977821917</v>
+        <v>-0.041999998969907359</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999992812400649</v>
+        <v>-0.0059999992791262002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999992811148317</v>
+        <v>-0.0059999992790089607</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.06726186212138785</v>
+        <v>0.067145615751744714</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999222336299</v>
+        <v>-0.011999999219165502</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.0079336047744331673</v>
+        <v>-0.0079667279888284703</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999186754209</v>
+        <v>-0.014999999182936818</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999135083769</v>
+        <v>-0.02099999913024142</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999992615349385</v>
+        <v>-0.0059999992591670548</v>
       </c>
     </row>
   </sheetData>
